--- a/config_Release/xiaoxiaole_power_cfg.xlsx
+++ b/config_Release/xiaoxiaole_power_cfg.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base_rate" sheetId="14" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <sheet name="|jisuanqi" sheetId="9" r:id="rId10"/>
     <sheet name="|xiaoxiaole" sheetId="6" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -140,14 +145,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +157,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -165,6 +165,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -172,6 +173,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -179,143 +181,24 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,7 +213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,19 +225,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor theme="9" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,194 +253,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -580,248 +277,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -875,64 +336,22 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="47"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1190,21 +609,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1256,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1282,7 +701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1308,7 +727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1334,7 +753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1361,44 +780,43 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F31"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="3">
         <v>0.2</v>
       </c>
       <c r="C3" s="3">
-        <v>0.1584</v>
+        <v>0.15840000000000001</v>
       </c>
       <c r="D3" s="3">
         <f>B3*C3</f>
-        <v>0.03168</v>
+        <v>3.1680000000000007E-2</v>
       </c>
       <c r="E3" s="3">
         <f>SUM(D3:D5)</f>
-        <v>0.59996</v>
+        <v>0.59996000000000005</v>
       </c>
       <c r="F3" s="3">
         <f>C3/3</f>
-        <v>0.0528</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>5.2800000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="3">
         <v>0.5</v>
       </c>
@@ -1407,33 +825,33 @@
       </c>
       <c r="D4" s="3">
         <f>B4*C4</f>
-        <v>0.175</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <f>C4/3</f>
-        <v>0.116666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>0.8</v>
       </c>
       <c r="C5" s="3">
         <f>1-SUM(C3:C4)</f>
-        <v>0.4916</v>
+        <v>0.49160000000000004</v>
       </c>
       <c r="D5" s="3">
         <f>B5*C5</f>
-        <v>0.39328</v>
+        <v>0.39328000000000007</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <f>C5/3</f>
-        <v>0.163866666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>0.16386666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>12</v>
       </c>
@@ -1446,22 +864,22 @@
       </c>
       <c r="E13">
         <f>SUM(D13:D16)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
+        <v>22.000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0.405</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="D14" s="3">
         <f>B14*C14</f>
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
+        <v>8.1000000000000014</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>40</v>
       </c>
@@ -1473,76 +891,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>100</v>
       </c>
       <c r="C16">
         <f>1-SUM(C13:C15)</f>
-        <v>0.045</v>
+        <v>4.500000000000004E-2</v>
       </c>
       <c r="D16" s="3">
         <f>B16*C16</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>4.5000000000000036</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>200</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG333"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
     <col min="2" max="13" width="8.875" style="1"/>
@@ -1550,7 +967,7 @@
     <col min="15" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1581,14 +998,14 @@
       </c>
       <c r="N1" s="3">
         <f>1/19*O1</f>
-        <v>0.0832105263157895</v>
+        <v>8.3210526315789471E-2</v>
       </c>
       <c r="O1" s="3">
         <v>1.581</v>
       </c>
       <c r="P1" s="3">
         <f t="shared" ref="P1:P19" si="0">M1*N1</f>
-        <v>0.0133136842105263</v>
+        <v>1.3313684210526316E-2</v>
       </c>
       <c r="S1" s="4">
         <v>25</v>
@@ -1599,33 +1016,33 @@
       </c>
       <c r="U1" s="4">
         <f>1/21*V1</f>
-        <v>0.0913571428571429</v>
+        <v>9.1357142857142859E-2</v>
       </c>
       <c r="V1" s="4">
-        <v>1.9185</v>
+        <v>1.9185000000000001</v>
       </c>
       <c r="W1" s="4">
         <f t="shared" ref="W1:W21" si="2">T1*U1</f>
-        <v>0.0913571428571429</v>
+        <v>9.1357142857142859E-2</v>
       </c>
       <c r="AA1" s="7"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0.10546875</v>
       </c>
       <c r="B2" s="1">
-        <v>0.003046875</v>
+        <v>3.0468750000000001E-3</v>
       </c>
       <c r="C2" s="1">
         <f>SUM(B2:B8)</f>
-        <v>0.021328125</v>
+        <v>2.1328125000000003E-2</v>
       </c>
       <c r="F2" s="1">
         <v>0.10546875</v>
       </c>
       <c r="G2" s="1">
-        <v>0.021328125</v>
+        <v>2.1328125E-2</v>
       </c>
       <c r="J2" s="3">
         <v>0.5</v>
@@ -1642,14 +1059,14 @@
       </c>
       <c r="N2" s="3">
         <f t="shared" ref="N2:N19" si="4">1/19*O2</f>
-        <v>0.0832105263157895</v>
+        <v>8.3210526315789471E-2</v>
       </c>
       <c r="O2" s="3">
         <v>1.581</v>
       </c>
       <c r="P2" s="3">
         <f t="shared" si="0"/>
-        <v>0.0166421052631579</v>
+        <v>1.6642105263157896E-2</v>
       </c>
       <c r="S2" s="4">
         <v>30</v>
@@ -1660,15 +1077,15 @@
       </c>
       <c r="U2" s="4">
         <f t="shared" ref="U2:U21" si="5">1/21*V2</f>
-        <v>0.0913571428571429</v>
+        <v>9.1357142857142859E-2</v>
       </c>
       <c r="V2" s="4">
         <f>V1</f>
-        <v>1.9185</v>
+        <v>1.9185000000000001</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" si="2"/>
-        <v>0.109628571428571</v>
+        <v>0.10962857142857142</v>
       </c>
       <c r="AA2" s="7">
         <v>25</v>
@@ -1679,29 +1096,29 @@
       </c>
       <c r="AC2" s="8">
         <f>1/43*AD2</f>
-        <v>0.0511627906976744</v>
+        <v>5.1162790697674425E-2</v>
       </c>
       <c r="AD2" s="7">
         <f>2.2</f>
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AE2" s="8">
         <f t="shared" ref="AE2:AE44" si="7">AB2*AC2</f>
-        <v>0.0511627906976744</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
+        <v>5.1162790697674425E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0.10546875</v>
       </c>
       <c r="B3" s="1">
-        <v>0.003046875</v>
+        <v>3.0468750000000001E-3</v>
       </c>
       <c r="F3" s="1">
         <v>0.10614483172266</v>
       </c>
       <c r="G3" s="1">
-        <v>0.01421875</v>
+        <v>1.421875E-2</v>
       </c>
       <c r="J3" s="4">
         <v>2</v>
@@ -1718,14 +1135,14 @@
       </c>
       <c r="N3" s="3">
         <f t="shared" si="4"/>
-        <v>0.0832105263157895</v>
+        <v>8.3210526315789471E-2</v>
       </c>
       <c r="O3" s="3">
         <v>1.581</v>
       </c>
       <c r="P3" s="3">
         <f t="shared" si="0"/>
-        <v>0.0266273684210526</v>
+        <v>2.6627368421052632E-2</v>
       </c>
       <c r="S3" s="4">
         <v>35</v>
@@ -1736,15 +1153,15 @@
       </c>
       <c r="U3" s="4">
         <f t="shared" si="5"/>
-        <v>0.0913571428571429</v>
+        <v>9.1357142857142859E-2</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" ref="V3:V10" si="8">V2</f>
-        <v>1.9185</v>
+        <v>1.9185000000000001</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="2"/>
-        <v>0.1279</v>
+        <v>0.12789999999999999</v>
       </c>
       <c r="AA3" s="7">
         <v>50</v>
@@ -1755,37 +1172,37 @@
       </c>
       <c r="AC3" s="8">
         <f t="shared" ref="AC3:AC44" si="9">1/43*AD3</f>
-        <v>0.0511627906976744</v>
+        <v>5.1162790697674425E-2</v>
       </c>
       <c r="AD3" s="8">
         <f t="shared" ref="AD3:AD10" si="10">AD2</f>
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AE3" s="8">
         <f t="shared" si="7"/>
-        <v>0.102325581395349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
+        <v>0.10232558139534885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0.10546875</v>
       </c>
       <c r="B4" s="1">
-        <v>0.003046875</v>
+        <v>3.0468750000000001E-3</v>
       </c>
       <c r="F4" s="1">
         <v>0.125</v>
       </c>
       <c r="G4" s="1">
-        <v>0.0975</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="J4" s="5">
         <f>(J6-J3*K3-J2*K2)/K4</f>
-        <v>12.2</v>
+        <v>12.200000000000003</v>
       </c>
       <c r="K4" s="5">
         <f>1-K2-K3-K1</f>
-        <v>0.05</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="L4" s="3">
         <v>9</v>
@@ -1796,14 +1213,14 @@
       </c>
       <c r="N4" s="3">
         <f t="shared" si="4"/>
-        <v>0.0832105263157895</v>
+        <v>8.3210526315789471E-2</v>
       </c>
       <c r="O4" s="3">
         <v>1.581</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="0"/>
-        <v>0.0299557894736842</v>
+        <v>2.995578947368421E-2</v>
       </c>
       <c r="S4" s="4">
         <v>40</v>
@@ -1814,15 +1231,15 @@
       </c>
       <c r="U4" s="4">
         <f t="shared" si="5"/>
-        <v>0.0913571428571429</v>
+        <v>9.1357142857142859E-2</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="8"/>
-        <v>1.9185</v>
+        <v>1.9185000000000001</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="2"/>
-        <v>0.146171428571429</v>
+        <v>0.14617142857142859</v>
       </c>
       <c r="AA4" s="7">
         <v>75</v>
@@ -1833,29 +1250,29 @@
       </c>
       <c r="AC4" s="8">
         <f t="shared" si="9"/>
-        <v>0.0511627906976744</v>
+        <v>5.1162790697674425E-2</v>
       </c>
       <c r="AD4" s="8">
         <f t="shared" si="10"/>
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AE4" s="8">
         <f t="shared" si="7"/>
-        <v>0.153488372093023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+        <v>0.15348837209302327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0.10546875</v>
       </c>
       <c r="B5" s="1">
-        <v>0.003046875</v>
+        <v>3.0468750000000001E-3</v>
       </c>
       <c r="F5" s="1">
         <v>0.140625</v>
       </c>
       <c r="G5" s="1">
-        <v>0.0365625</v>
+        <v>3.6562499999999998E-2</v>
       </c>
       <c r="L5" s="3">
         <v>10</v>
@@ -1866,14 +1283,14 @@
       </c>
       <c r="N5" s="3">
         <f t="shared" si="4"/>
-        <v>0.0832105263157895</v>
+        <v>8.3210526315789471E-2</v>
       </c>
       <c r="O5" s="3">
         <v>1.581</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="0"/>
-        <v>0.0332842105263158</v>
+        <v>3.3284210526315791E-2</v>
       </c>
       <c r="S5" s="4">
         <v>45</v>
@@ -1884,15 +1301,15 @@
       </c>
       <c r="U5" s="4">
         <f t="shared" si="5"/>
-        <v>0.0913571428571429</v>
+        <v>9.1357142857142859E-2</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="8"/>
-        <v>1.9185</v>
+        <v>1.9185000000000001</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="2"/>
-        <v>0.164442857142857</v>
+        <v>0.16444285714285714</v>
       </c>
       <c r="AA5" s="7">
         <v>100</v>
@@ -1903,29 +1320,29 @@
       </c>
       <c r="AC5" s="8">
         <f t="shared" si="9"/>
-        <v>0.0511627906976744</v>
+        <v>5.1162790697674425E-2</v>
       </c>
       <c r="AD5" s="8">
         <f t="shared" si="10"/>
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AE5" s="8">
         <f t="shared" si="7"/>
-        <v>0.204651162790698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
+        <v>0.2046511627906977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>0.10546875</v>
       </c>
       <c r="B6" s="1">
-        <v>0.003046875</v>
+        <v>3.0468750000000001E-3</v>
       </c>
       <c r="F6" s="1">
         <v>0.14152644229687</v>
       </c>
       <c r="G6" s="1">
-        <v>0.01625</v>
+        <v>1.6250000000000001E-2</v>
       </c>
       <c r="J6" s="1">
         <v>0.98</v>
@@ -1939,14 +1356,14 @@
       </c>
       <c r="N6" s="3">
         <f t="shared" si="4"/>
-        <v>0.0832105263157895</v>
+        <v>8.3210526315789471E-2</v>
       </c>
       <c r="O6" s="3">
         <v>1.581</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="0"/>
-        <v>0.0399410526315789</v>
+        <v>3.9941052631578947E-2</v>
       </c>
       <c r="S6" s="4">
         <v>50</v>
@@ -1957,15 +1374,15 @@
       </c>
       <c r="U6" s="4">
         <f t="shared" si="5"/>
-        <v>0.0913571428571429</v>
+        <v>9.1357142857142859E-2</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" si="8"/>
-        <v>1.9185</v>
+        <v>1.9185000000000001</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="2"/>
-        <v>0.182714285714286</v>
+        <v>0.18271428571428572</v>
       </c>
       <c r="AA6" s="7">
         <v>125</v>
@@ -1976,29 +1393,29 @@
       </c>
       <c r="AC6" s="8">
         <f t="shared" si="9"/>
-        <v>0.0511627906976744</v>
+        <v>5.1162790697674425E-2</v>
       </c>
       <c r="AD6" s="8">
         <f t="shared" si="10"/>
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AE6" s="8">
         <f t="shared" si="7"/>
-        <v>0.255813953488372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
+        <v>0.2558139534883721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>0.10546875</v>
       </c>
       <c r="B7" s="1">
-        <v>0.003046875</v>
+        <v>3.0468750000000001E-3</v>
       </c>
       <c r="F7" s="1">
         <v>0.158203125</v>
       </c>
       <c r="G7" s="1">
-        <v>0.0289453125</v>
+        <v>2.8945312500000001E-2</v>
       </c>
       <c r="L7" s="3">
         <v>13</v>
@@ -2009,33 +1426,33 @@
       </c>
       <c r="N7" s="3">
         <f t="shared" si="4"/>
-        <v>0.0832105263157895</v>
+        <v>8.3210526315789471E-2</v>
       </c>
       <c r="O7" s="3">
         <v>1.581</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="0"/>
-        <v>0.0432694736842105</v>
+        <v>4.3269473684210524E-2</v>
       </c>
       <c r="S7" s="4">
         <v>55</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="1"/>
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="U7" s="4">
         <f t="shared" si="5"/>
-        <v>0.0913571428571429</v>
+        <v>9.1357142857142859E-2</v>
       </c>
       <c r="V7" s="4">
         <f t="shared" si="8"/>
-        <v>1.9185</v>
+        <v>1.9185000000000001</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="2"/>
-        <v>0.200985714285714</v>
+        <v>0.2009857142857143</v>
       </c>
       <c r="AA7" s="7">
         <v>150</v>
@@ -2046,47 +1463,47 @@
       </c>
       <c r="AC7" s="8">
         <f t="shared" si="9"/>
-        <v>0.0511627906976744</v>
+        <v>5.1162790697674425E-2</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" si="10"/>
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AE7" s="8">
         <f t="shared" si="7"/>
-        <v>0.306976744186047</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
+        <v>0.30697674418604654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>0.10546875</v>
       </c>
       <c r="B8" s="1">
-        <v>0.003046875</v>
+        <v>3.0468750000000001E-3</v>
       </c>
       <c r="F8" s="1">
         <v>0.1875</v>
       </c>
       <c r="G8" s="1">
-        <v>0.0975</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="L8" s="3">
         <v>14</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="3"/>
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="4"/>
-        <v>0.0832105263157895</v>
+        <v>8.3210526315789471E-2</v>
       </c>
       <c r="O8" s="3">
         <v>1.581</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="0"/>
-        <v>0.0465978947368421</v>
+        <v>4.6597894736842109E-2</v>
       </c>
       <c r="S8" s="4">
         <v>60</v>
@@ -2097,15 +1514,15 @@
       </c>
       <c r="U8" s="4">
         <f t="shared" si="5"/>
-        <v>0.0913571428571429</v>
+        <v>9.1357142857142859E-2</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="8"/>
-        <v>1.9185</v>
+        <v>1.9185000000000001</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="2"/>
-        <v>0.219257142857143</v>
+        <v>0.21925714285714284</v>
       </c>
       <c r="AA8" s="7">
         <v>175</v>
@@ -2116,33 +1533,33 @@
       </c>
       <c r="AC8" s="8">
         <f t="shared" si="9"/>
-        <v>0.0511627906976744</v>
+        <v>5.1162790697674425E-2</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="10"/>
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AE8" s="8">
         <f t="shared" si="7"/>
-        <v>0.358139534883721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
+        <v>0.35813953488372097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0.10614483172266</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
       <c r="C9" s="1">
         <f>SUM(B9:B22)</f>
-        <v>0.01421875</v>
+        <v>1.4218749999999995E-2</v>
       </c>
       <c r="F9" s="1">
         <v>0.1887019230625</v>
       </c>
       <c r="G9" s="1">
-        <v>0.01625</v>
+        <v>1.6250000000000001E-2</v>
       </c>
       <c r="L9" s="3">
         <v>15</v>
@@ -2153,14 +1570,14 @@
       </c>
       <c r="N9" s="3">
         <f t="shared" si="4"/>
-        <v>0.0832105263157895</v>
+        <v>8.3210526315789471E-2</v>
       </c>
       <c r="O9" s="3">
         <v>1.581</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="0"/>
-        <v>0.0499263157894737</v>
+        <v>4.992631578947368E-2</v>
       </c>
       <c r="S9" s="4">
         <v>65</v>
@@ -2171,15 +1588,15 @@
       </c>
       <c r="U9" s="4">
         <f t="shared" si="5"/>
-        <v>0.0913571428571429</v>
+        <v>9.1357142857142859E-2</v>
       </c>
       <c r="V9" s="4">
         <f t="shared" si="8"/>
-        <v>1.9185</v>
+        <v>1.9185000000000001</v>
       </c>
       <c r="W9" s="4">
         <f t="shared" si="2"/>
-        <v>0.237528571428571</v>
+        <v>0.23752857142857145</v>
       </c>
       <c r="AA9" s="7">
         <v>200</v>
@@ -2190,29 +1607,29 @@
       </c>
       <c r="AC9" s="8">
         <f t="shared" si="9"/>
-        <v>0.0511627906976744</v>
+        <v>5.1162790697674425E-2</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="10"/>
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AE9" s="8">
         <f t="shared" si="7"/>
-        <v>0.409302325581395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
+        <v>0.4093023255813954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>0.10614483172266</v>
       </c>
       <c r="B10" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
       <c r="F10" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="G10" s="1">
-        <v>0.04875</v>
+        <v>4.8750000000000002E-2</v>
       </c>
       <c r="L10" s="3">
         <v>16</v>
@@ -2223,14 +1640,14 @@
       </c>
       <c r="N10" s="3">
         <f t="shared" si="4"/>
-        <v>0.0526315789473684</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="O10" s="3">
         <v>1</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="0"/>
-        <v>0.0336842105263158</v>
+        <v>3.3684210526315789E-2</v>
       </c>
       <c r="S10" s="4">
         <v>70</v>
@@ -2241,15 +1658,15 @@
       </c>
       <c r="U10" s="4">
         <f t="shared" si="5"/>
-        <v>0.0913571428571429</v>
+        <v>9.1357142857142859E-2</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" si="8"/>
-        <v>1.9185</v>
+        <v>1.9185000000000001</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="2"/>
-        <v>0.2558</v>
+        <v>0.25579999999999997</v>
       </c>
       <c r="AA10" s="7">
         <v>225</v>
@@ -2260,29 +1677,29 @@
       </c>
       <c r="AC10" s="8">
         <f t="shared" si="9"/>
-        <v>0.0511627906976744</v>
+        <v>5.1162790697674425E-2</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="10"/>
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AE10" s="8">
         <f t="shared" si="7"/>
-        <v>0.46046511627907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
+        <v>0.46046511627906983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>0.10614483172266</v>
       </c>
       <c r="B11" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
       <c r="F11" s="1">
         <v>0.474609375</v>
       </c>
       <c r="G11" s="1">
-        <v>0.0563671875</v>
+        <v>5.6367187499999999E-2</v>
       </c>
       <c r="L11" s="3">
         <v>17</v>
@@ -2293,14 +1710,14 @@
       </c>
       <c r="N11" s="3">
         <f t="shared" si="4"/>
-        <v>0.0220526315789474</v>
+        <v>2.2052631578947365E-2</v>
       </c>
       <c r="O11" s="3">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="0"/>
-        <v>0.0149957894736842</v>
+        <v>1.4995789473684209E-2</v>
       </c>
       <c r="S11" s="4">
         <v>75</v>
@@ -2311,14 +1728,14 @@
       </c>
       <c r="U11" s="4">
         <f t="shared" si="5"/>
-        <v>0.0476190476190476</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="V11" s="4">
         <v>1</v>
       </c>
       <c r="W11" s="4">
         <f t="shared" si="2"/>
-        <v>0.142857142857143</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AA11" s="9">
         <v>250</v>
@@ -2329,29 +1746,29 @@
       </c>
       <c r="AC11" s="10">
         <f t="shared" si="9"/>
-        <v>0.0349116279069767</v>
+        <v>3.4911627906976744E-2</v>
       </c>
       <c r="AD11" s="10">
         <f>1.5012</f>
-        <v>1.5012</v>
+        <v>1.5012000000000001</v>
       </c>
       <c r="AE11" s="10">
         <f t="shared" si="7"/>
-        <v>0.349116279069767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
+        <v>0.34911627906976744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>0.10614483172266</v>
       </c>
       <c r="B12" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
       <c r="F12" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="G12" s="1">
-        <v>0.070078125</v>
+        <v>7.0078125000000005E-2</v>
       </c>
       <c r="L12" s="3">
         <v>18</v>
@@ -2362,14 +1779,14 @@
       </c>
       <c r="N12" s="3">
         <f t="shared" si="4"/>
-        <v>0.0220526315789474</v>
+        <v>2.2052631578947365E-2</v>
       </c>
       <c r="O12" s="3">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="0"/>
-        <v>0.0158778947368421</v>
+        <v>1.5877894736842101E-2</v>
       </c>
       <c r="S12" s="4">
         <v>80</v>
@@ -2380,15 +1797,15 @@
       </c>
       <c r="U12" s="4">
         <f t="shared" si="5"/>
-        <v>0.00388095238095238</v>
+        <v>3.8809523809523764E-3</v>
       </c>
       <c r="V12" s="4">
         <f>2-V1</f>
-        <v>0.0814999999999999</v>
+        <v>8.1499999999999906E-2</v>
       </c>
       <c r="W12" s="4">
         <f t="shared" si="2"/>
-        <v>0.0124190476190476</v>
+        <v>1.2419047619047606E-2</v>
       </c>
       <c r="AA12" s="9">
         <v>275</v>
@@ -2399,29 +1816,29 @@
       </c>
       <c r="AC12" s="10">
         <f t="shared" si="9"/>
-        <v>0.0349116279069767</v>
+        <v>3.4911627906976744E-2</v>
       </c>
       <c r="AD12" s="10">
         <f t="shared" ref="AD12:AD21" si="12">AD11</f>
-        <v>1.5012</v>
+        <v>1.5012000000000001</v>
       </c>
       <c r="AE12" s="10">
         <f t="shared" si="7"/>
-        <v>0.384027906976744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
+        <v>0.38402790697674416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>0.10614483172266</v>
       </c>
       <c r="B13" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
       <c r="F13" s="1">
         <v>1.423828125</v>
       </c>
       <c r="G13" s="1">
-        <v>0.0380859375</v>
+        <v>3.80859375E-2</v>
       </c>
       <c r="L13" s="3">
         <v>19</v>
@@ -2432,14 +1849,14 @@
       </c>
       <c r="N13" s="3">
         <f t="shared" si="4"/>
-        <v>0.0220526315789474</v>
+        <v>2.2052631578947365E-2</v>
       </c>
       <c r="O13" s="3">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="0"/>
-        <v>0.01676</v>
+        <v>1.6759999999999997E-2</v>
       </c>
       <c r="S13" s="4">
         <v>85</v>
@@ -2450,15 +1867,15 @@
       </c>
       <c r="U13" s="4">
         <f t="shared" si="5"/>
-        <v>0.00388095238095238</v>
+        <v>3.8809523809523764E-3</v>
       </c>
       <c r="V13" s="4">
         <f>V12</f>
-        <v>0.0814999999999999</v>
+        <v>8.1499999999999906E-2</v>
       </c>
       <c r="W13" s="4">
         <f t="shared" si="2"/>
-        <v>0.0131952380952381</v>
+        <v>1.3195238095238079E-2</v>
       </c>
       <c r="AA13" s="9">
         <v>300</v>
@@ -2469,29 +1886,29 @@
       </c>
       <c r="AC13" s="10">
         <f t="shared" si="9"/>
-        <v>0.0349116279069767</v>
+        <v>3.4911627906976744E-2</v>
       </c>
       <c r="AD13" s="10">
         <f t="shared" si="12"/>
-        <v>1.5012</v>
+        <v>1.5012000000000001</v>
       </c>
       <c r="AE13" s="10">
         <f t="shared" si="7"/>
-        <v>0.418939534883721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
+        <v>0.41893953488372093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>0.10614483172266</v>
       </c>
       <c r="B14" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
       <c r="F14" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="G14" s="1">
-        <v>0.056875</v>
+        <v>5.6875000000000002E-2</v>
       </c>
       <c r="L14" s="3">
         <v>20</v>
@@ -2502,14 +1919,14 @@
       </c>
       <c r="N14" s="3">
         <f t="shared" si="4"/>
-        <v>0.0220526315789474</v>
+        <v>2.2052631578947365E-2</v>
       </c>
       <c r="O14" s="3">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="0"/>
-        <v>0.0176421052631579</v>
+        <v>1.7642105263157893E-2</v>
       </c>
       <c r="S14" s="4">
         <v>90</v>
@@ -2520,15 +1937,15 @@
       </c>
       <c r="U14" s="4">
         <f t="shared" si="5"/>
-        <v>0.00388095238095238</v>
+        <v>3.8809523809523764E-3</v>
       </c>
       <c r="V14" s="4">
         <f t="shared" ref="V14:V21" si="13">V13</f>
-        <v>0.0814999999999999</v>
+        <v>8.1499999999999906E-2</v>
       </c>
       <c r="W14" s="4">
         <f t="shared" si="2"/>
-        <v>0.0139714285714286</v>
+        <v>1.3971428571428555E-2</v>
       </c>
       <c r="AA14" s="9">
         <v>325</v>
@@ -2539,29 +1956,29 @@
       </c>
       <c r="AC14" s="10">
         <f t="shared" si="9"/>
-        <v>0.0349116279069767</v>
+        <v>3.4911627906976744E-2</v>
       </c>
       <c r="AD14" s="10">
         <f t="shared" si="12"/>
-        <v>1.5012</v>
+        <v>1.5012000000000001</v>
       </c>
       <c r="AE14" s="10">
         <f t="shared" si="7"/>
-        <v>0.453851162790698</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
+        <v>0.4538511627906977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>0.10614483172266</v>
       </c>
       <c r="B15" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
       <c r="F15" s="1">
         <v>4.271484375</v>
       </c>
       <c r="G15" s="1">
-        <v>0.0121875</v>
+        <v>1.21875E-2</v>
       </c>
       <c r="L15" s="3">
         <v>21</v>
@@ -2572,14 +1989,14 @@
       </c>
       <c r="N15" s="3">
         <f t="shared" si="4"/>
-        <v>0.0220526315789474</v>
+        <v>2.2052631578947365E-2</v>
       </c>
       <c r="O15" s="3">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="0"/>
-        <v>0.0185242105263158</v>
+        <v>1.8524210526315785E-2</v>
       </c>
       <c r="S15" s="4">
         <v>95</v>
@@ -2590,15 +2007,15 @@
       </c>
       <c r="U15" s="4">
         <f t="shared" si="5"/>
-        <v>0.00388095238095238</v>
+        <v>3.8809523809523764E-3</v>
       </c>
       <c r="V15" s="4">
         <f t="shared" si="13"/>
-        <v>0.0814999999999999</v>
+        <v>8.1499999999999906E-2</v>
       </c>
       <c r="W15" s="4">
         <f t="shared" si="2"/>
-        <v>0.014747619047619</v>
+        <v>1.474761904761903E-2</v>
       </c>
       <c r="AA15" s="9">
         <v>350</v>
@@ -2609,29 +2026,29 @@
       </c>
       <c r="AC15" s="10">
         <f t="shared" si="9"/>
-        <v>0.0349116279069767</v>
+        <v>3.4911627906976744E-2</v>
       </c>
       <c r="AD15" s="10">
         <f t="shared" si="12"/>
-        <v>1.5012</v>
+        <v>1.5012000000000001</v>
       </c>
       <c r="AE15" s="10">
         <f t="shared" si="7"/>
-        <v>0.488762790697674</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
+        <v>0.48876279069767442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>0.10614483172266</v>
       </c>
       <c r="B16" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
       <c r="F16" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="G16" s="1">
-        <v>0.0284375</v>
+        <v>2.8437500000000001E-2</v>
       </c>
       <c r="L16" s="3">
         <v>22</v>
@@ -2642,14 +2059,14 @@
       </c>
       <c r="N16" s="3">
         <f t="shared" si="4"/>
-        <v>0.0220526315789474</v>
+        <v>2.2052631578947365E-2</v>
       </c>
       <c r="O16" s="3">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="0"/>
-        <v>0.0194063157894737</v>
+        <v>1.9406315789473681E-2</v>
       </c>
       <c r="S16" s="4">
         <v>100</v>
@@ -2660,15 +2077,15 @@
       </c>
       <c r="U16" s="4">
         <f t="shared" si="5"/>
-        <v>0.00388095238095238</v>
+        <v>3.8809523809523764E-3</v>
       </c>
       <c r="V16" s="4">
         <f t="shared" si="13"/>
-        <v>0.0814999999999999</v>
+        <v>8.1499999999999906E-2</v>
       </c>
       <c r="W16" s="4">
         <f t="shared" si="2"/>
-        <v>0.0155238095238095</v>
+        <v>1.5523809523809506E-2</v>
       </c>
       <c r="AA16" s="9">
         <v>375</v>
@@ -2679,29 +2096,29 @@
       </c>
       <c r="AC16" s="10">
         <f t="shared" si="9"/>
-        <v>0.0349116279069767</v>
+        <v>3.4911627906976744E-2</v>
       </c>
       <c r="AD16" s="10">
         <f t="shared" si="12"/>
-        <v>1.5012</v>
+        <v>1.5012000000000001</v>
       </c>
       <c r="AE16" s="10">
         <f t="shared" si="7"/>
-        <v>0.523674418604651</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
+        <v>0.52367441860465114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>0.10614483172266</v>
       </c>
       <c r="B17" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
       <c r="F17" s="1">
         <v>12.814453125</v>
       </c>
       <c r="G17" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="L17" s="3">
         <v>23</v>
@@ -2712,14 +2129,14 @@
       </c>
       <c r="N17" s="3">
         <f t="shared" si="4"/>
-        <v>0.0220526315789474</v>
+        <v>2.2052631578947365E-2</v>
       </c>
       <c r="O17" s="3">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="0"/>
-        <v>0.0202884210526316</v>
+        <v>2.0288421052631577E-2</v>
       </c>
       <c r="S17" s="4">
         <v>105</v>
@@ -2730,15 +2147,15 @@
       </c>
       <c r="U17" s="4">
         <f t="shared" si="5"/>
-        <v>0.00388095238095238</v>
+        <v>3.8809523809523764E-3</v>
       </c>
       <c r="V17" s="4">
         <f t="shared" si="13"/>
-        <v>0.0814999999999999</v>
+        <v>8.1499999999999906E-2</v>
       </c>
       <c r="W17" s="4">
         <f t="shared" si="2"/>
-        <v>0.0163</v>
+        <v>1.6299999999999981E-2</v>
       </c>
       <c r="AA17" s="9">
         <v>400</v>
@@ -2749,29 +2166,29 @@
       </c>
       <c r="AC17" s="10">
         <f t="shared" si="9"/>
-        <v>0.0349116279069767</v>
+        <v>3.4911627906976744E-2</v>
       </c>
       <c r="AD17" s="10">
         <f t="shared" si="12"/>
-        <v>1.5012</v>
+        <v>1.5012000000000001</v>
       </c>
       <c r="AE17" s="10">
         <f t="shared" si="7"/>
-        <v>0.558586046511628</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33">
+        <v>0.55858604651162791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>0.10614483172266</v>
       </c>
       <c r="B18" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
       <c r="F18" s="1">
         <v>25.793194108605</v>
       </c>
       <c r="G18" s="1">
-        <v>0.008125</v>
+        <v>8.1250000000000003E-3</v>
       </c>
       <c r="L18" s="3">
         <v>24</v>
@@ -2782,33 +2199,33 @@
       </c>
       <c r="N18" s="3">
         <f t="shared" si="4"/>
-        <v>0.0220526315789474</v>
+        <v>2.2052631578947365E-2</v>
       </c>
       <c r="O18" s="3">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="0"/>
-        <v>0.0211705263157895</v>
+        <v>2.117052631578947E-2</v>
       </c>
       <c r="S18" s="4">
         <v>110</v>
       </c>
       <c r="T18" s="4">
         <f t="shared" si="1"/>
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="U18" s="4">
         <f t="shared" si="5"/>
-        <v>0.00388095238095238</v>
+        <v>3.8809523809523764E-3</v>
       </c>
       <c r="V18" s="4">
         <f t="shared" si="13"/>
-        <v>0.0814999999999999</v>
+        <v>8.1499999999999906E-2</v>
       </c>
       <c r="W18" s="4">
         <f t="shared" si="2"/>
-        <v>0.0170761904761905</v>
+        <v>1.7076190476190457E-2</v>
       </c>
       <c r="AA18" s="9">
         <v>425</v>
@@ -2819,30 +2236,30 @@
       </c>
       <c r="AC18" s="10">
         <f t="shared" si="9"/>
-        <v>0.0349116279069767</v>
+        <v>3.4911627906976744E-2</v>
       </c>
       <c r="AD18" s="10">
         <f t="shared" si="12"/>
-        <v>1.5012</v>
+        <v>1.5012000000000001</v>
       </c>
       <c r="AE18" s="10">
         <f t="shared" si="7"/>
-        <v>0.593497674418605</v>
+        <v>0.59349767441860468</v>
       </c>
       <c r="AG18" s="6"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>0.10614483172266</v>
       </c>
       <c r="B19" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
       <c r="F19" s="1">
-        <v>77.379582325816</v>
+        <v>77.379582325816003</v>
       </c>
       <c r="G19" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
       <c r="L19" s="3">
         <v>25</v>
@@ -2853,33 +2270,33 @@
       </c>
       <c r="N19" s="3">
         <f t="shared" si="4"/>
-        <v>0.0220526315789474</v>
+        <v>2.2052631578947365E-2</v>
       </c>
       <c r="O19" s="3">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="0"/>
-        <v>0.0220526315789474</v>
+        <v>2.2052631578947365E-2</v>
       </c>
       <c r="S19" s="4">
         <v>115</v>
       </c>
       <c r="T19" s="4">
         <f t="shared" si="1"/>
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="U19" s="4">
         <f t="shared" si="5"/>
-        <v>0.00388095238095238</v>
+        <v>3.8809523809523764E-3</v>
       </c>
       <c r="V19" s="4">
         <f t="shared" si="13"/>
-        <v>0.0814999999999999</v>
+        <v>8.1499999999999906E-2</v>
       </c>
       <c r="W19" s="4">
         <f t="shared" si="2"/>
-        <v>0.0178523809523809</v>
+        <v>1.7852380952380929E-2</v>
       </c>
       <c r="AA19" s="9">
         <v>450</v>
@@ -2890,23 +2307,23 @@
       </c>
       <c r="AC19" s="10">
         <f t="shared" si="9"/>
-        <v>0.0349116279069767</v>
+        <v>3.4911627906976744E-2</v>
       </c>
       <c r="AD19" s="10">
         <f t="shared" si="12"/>
-        <v>1.5012</v>
+        <v>1.5012000000000001</v>
       </c>
       <c r="AE19" s="10">
         <f t="shared" si="7"/>
-        <v>0.628409302325581</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
+        <v>0.62840930232558145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>0.10614483172266</v>
       </c>
       <c r="B20" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2922,15 +2339,15 @@
       </c>
       <c r="U20" s="4">
         <f t="shared" si="5"/>
-        <v>0.00388095238095238</v>
+        <v>3.8809523809523764E-3</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" si="13"/>
-        <v>0.0814999999999999</v>
+        <v>8.1499999999999906E-2</v>
       </c>
       <c r="W20" s="4">
         <f t="shared" si="2"/>
-        <v>0.0186285714285714</v>
+        <v>1.8628571428571408E-2</v>
       </c>
       <c r="AA20" s="9">
         <v>475</v>
@@ -2941,35 +2358,35 @@
       </c>
       <c r="AC20" s="10">
         <f t="shared" si="9"/>
-        <v>0.0349116279069767</v>
+        <v>3.4911627906976744E-2</v>
       </c>
       <c r="AD20" s="10">
         <f t="shared" si="12"/>
-        <v>1.5012</v>
+        <v>1.5012000000000001</v>
       </c>
       <c r="AE20" s="10">
         <f t="shared" si="7"/>
-        <v>0.663320930232558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
+        <v>0.66332093023255811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>0.10614483172266</v>
       </c>
       <c r="B21" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
       <c r="D21" s="2"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3">
         <f>SUM(N1:N19)</f>
-        <v>1</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3">
         <f>SUM(P1:P19)</f>
-        <v>0.49996</v>
+        <v>0.49995999999999996</v>
       </c>
       <c r="S21" s="4">
         <v>125</v>
@@ -2980,15 +2397,15 @@
       </c>
       <c r="U21" s="4">
         <f t="shared" si="5"/>
-        <v>0.00388095238095238</v>
+        <v>3.8809523809523764E-3</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="13"/>
-        <v>0.0814999999999999</v>
+        <v>8.1499999999999906E-2</v>
       </c>
       <c r="W21" s="4">
         <f t="shared" si="2"/>
-        <v>0.0194047619047619</v>
+        <v>1.9404761904761883E-2</v>
       </c>
       <c r="AA21" s="9">
         <v>500</v>
@@ -2999,23 +2416,23 @@
       </c>
       <c r="AC21" s="10">
         <f t="shared" si="9"/>
-        <v>0.0349116279069767</v>
+        <v>3.4911627906976744E-2</v>
       </c>
       <c r="AD21" s="10">
         <f t="shared" si="12"/>
-        <v>1.5012</v>
+        <v>1.5012000000000001</v>
       </c>
       <c r="AE21" s="10">
         <f t="shared" si="7"/>
-        <v>0.698232558139535</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
+        <v>0.69823255813953489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>0.10614483172266</v>
       </c>
       <c r="B22" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
       <c r="AA22" s="7">
         <v>525</v>
@@ -3026,23 +2443,23 @@
       </c>
       <c r="AC22" s="8">
         <f t="shared" si="9"/>
-        <v>0.0125116279069767</v>
+        <v>1.2511627906976745E-2</v>
       </c>
       <c r="AD22" s="8">
         <f>0.538</f>
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="AE22" s="8">
         <f t="shared" si="7"/>
-        <v>0.262744186046512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
+        <v>0.26274418604651162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>0.125</v>
       </c>
       <c r="B23" s="1">
-        <v>0.0975</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="AA23" s="7">
         <v>550</v>
@@ -3053,32 +2470,32 @@
       </c>
       <c r="AC23" s="8">
         <f t="shared" si="9"/>
-        <v>0.0125116279069767</v>
+        <v>1.2511627906976745E-2</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" ref="AD23:AD44" si="14">AD22</f>
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="AE23" s="8">
         <f t="shared" si="7"/>
-        <v>0.275255813953488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
+        <v>0.27525581395348836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>0.140625</v>
       </c>
       <c r="B24" s="1">
-        <v>0.0121875</v>
+        <v>1.21875E-2</v>
       </c>
       <c r="U24" s="4">
         <f>SUM(U1:U21)</f>
-        <v>1</v>
+        <v>1.0000000000000007</v>
       </c>
       <c r="V24" s="4"/>
       <c r="W24" s="4">
         <f>SUM(W1:W19)</f>
-        <v>1.99972857142857</v>
+        <v>1.9997285714285711</v>
       </c>
       <c r="AA24" s="7">
         <v>575</v>
@@ -3089,23 +2506,23 @@
       </c>
       <c r="AC24" s="8">
         <f t="shared" si="9"/>
-        <v>0.0125116279069767</v>
+        <v>1.2511627906976745E-2</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="14"/>
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="AE24" s="8">
         <f t="shared" si="7"/>
-        <v>0.287767441860465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
+        <v>0.2877674418604651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>0.140625</v>
       </c>
       <c r="B25" s="1">
-        <v>0.0121875</v>
+        <v>1.21875E-2</v>
       </c>
       <c r="AA25" s="7">
         <v>600</v>
@@ -3116,23 +2533,23 @@
       </c>
       <c r="AC25" s="8">
         <f t="shared" si="9"/>
-        <v>0.0125116279069767</v>
+        <v>1.2511627906976745E-2</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="14"/>
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="AE25" s="8">
         <f t="shared" si="7"/>
-        <v>0.300279069767442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31">
+        <v>0.3002790697674419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>0.140625</v>
       </c>
       <c r="B26" s="1">
-        <v>0.0121875</v>
+        <v>1.21875E-2</v>
       </c>
       <c r="AA26" s="7">
         <v>625</v>
@@ -3143,23 +2560,23 @@
       </c>
       <c r="AC26" s="8">
         <f t="shared" si="9"/>
-        <v>0.0125116279069767</v>
+        <v>1.2511627906976745E-2</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="14"/>
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="AE26" s="8">
         <f t="shared" si="7"/>
-        <v>0.312790697674419</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31">
+        <v>0.31279069767441864</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>0.14152644229687</v>
       </c>
       <c r="B27" s="1">
-        <v>0.0040625</v>
+        <v>4.0625000000000001E-3</v>
       </c>
       <c r="AA27" s="7">
         <v>650</v>
@@ -3170,23 +2587,23 @@
       </c>
       <c r="AC27" s="8">
         <f t="shared" si="9"/>
-        <v>0.0125116279069767</v>
+        <v>1.2511627906976745E-2</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="14"/>
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="AE27" s="8">
         <f t="shared" si="7"/>
-        <v>0.325302325581395</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31">
+        <v>0.32530232558139538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>0.14152644229687</v>
       </c>
       <c r="B28" s="1">
-        <v>0.0040625</v>
+        <v>4.0625000000000001E-3</v>
       </c>
       <c r="O28" s="6"/>
       <c r="Q28" s="6"/>
@@ -3199,23 +2616,23 @@
       </c>
       <c r="AC28" s="8">
         <f t="shared" si="9"/>
-        <v>0.0125116279069767</v>
+        <v>1.2511627906976745E-2</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="14"/>
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="AE28" s="8">
         <f t="shared" si="7"/>
-        <v>0.337813953488372</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31">
+        <v>0.33781395348837212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>0.14152644229687</v>
       </c>
       <c r="B29" s="1">
-        <v>0.0040625</v>
+        <v>4.0625000000000001E-3</v>
       </c>
       <c r="AA29" s="7">
         <v>700</v>
@@ -3226,23 +2643,23 @@
       </c>
       <c r="AC29" s="8">
         <f t="shared" si="9"/>
-        <v>0.0125116279069767</v>
+        <v>1.2511627906976745E-2</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="14"/>
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="AE29" s="8">
         <f t="shared" si="7"/>
-        <v>0.350325581395349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31">
+        <v>0.35032558139534886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>0.14152644229687</v>
       </c>
       <c r="B30" s="1">
-        <v>0.0040625</v>
+        <v>4.0625000000000001E-3</v>
       </c>
       <c r="AA30" s="7">
         <v>725</v>
@@ -3253,23 +2670,23 @@
       </c>
       <c r="AC30" s="8">
         <f t="shared" si="9"/>
-        <v>0.0125116279069767</v>
+        <v>1.2511627906976745E-2</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="14"/>
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="AE30" s="8">
         <f t="shared" si="7"/>
-        <v>0.362837209302326</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31">
+        <v>0.3628372093023256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B31" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA31" s="7">
         <v>750</v>
@@ -3280,23 +2697,23 @@
       </c>
       <c r="AC31" s="8">
         <f t="shared" si="9"/>
-        <v>0.0125116279069767</v>
+        <v>1.2511627906976745E-2</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="14"/>
-        <v>0.538</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="AE31" s="8">
         <f t="shared" si="7"/>
-        <v>0.375348837209302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31">
+        <v>0.37534883720930234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA32" s="9">
         <v>775</v>
@@ -3307,7 +2724,7 @@
       </c>
       <c r="AC32" s="10">
         <f t="shared" si="9"/>
-        <v>0.00232558139534884</v>
+        <v>2.3255813953488372E-3</v>
       </c>
       <c r="AD32" s="10">
         <f>0.1</f>
@@ -3315,15 +2732,15 @@
       </c>
       <c r="AE32" s="10">
         <f t="shared" si="7"/>
-        <v>0.072093023255814</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31">
+        <v>7.2093023255813959E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B33" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA33" s="9">
         <v>800</v>
@@ -3334,7 +2751,7 @@
       </c>
       <c r="AC33" s="10">
         <f t="shared" si="9"/>
-        <v>0.00232558139534884</v>
+        <v>2.3255813953488372E-3</v>
       </c>
       <c r="AD33" s="10">
         <f t="shared" si="14"/>
@@ -3342,15 +2759,15 @@
       </c>
       <c r="AE33" s="10">
         <f t="shared" si="7"/>
-        <v>0.0744186046511628</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31">
+        <v>7.441860465116279E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B34" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA34" s="9">
         <v>825</v>
@@ -3361,7 +2778,7 @@
       </c>
       <c r="AC34" s="10">
         <f t="shared" si="9"/>
-        <v>0.00232558139534884</v>
+        <v>2.3255813953488372E-3</v>
       </c>
       <c r="AD34" s="10">
         <f t="shared" si="14"/>
@@ -3369,15 +2786,15 @@
       </c>
       <c r="AE34" s="10">
         <f t="shared" si="7"/>
-        <v>0.0767441860465116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31">
+        <v>7.674418604651162E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B35" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA35" s="9">
         <v>850</v>
@@ -3388,7 +2805,7 @@
       </c>
       <c r="AC35" s="10">
         <f t="shared" si="9"/>
-        <v>0.00232558139534884</v>
+        <v>2.3255813953488372E-3</v>
       </c>
       <c r="AD35" s="10">
         <f t="shared" si="14"/>
@@ -3396,15 +2813,15 @@
       </c>
       <c r="AE35" s="10">
         <f t="shared" si="7"/>
-        <v>0.0790697674418605</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31">
+        <v>7.9069767441860464E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B36" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA36" s="9">
         <v>875</v>
@@ -3415,7 +2832,7 @@
       </c>
       <c r="AC36" s="10">
         <f t="shared" si="9"/>
-        <v>0.00232558139534884</v>
+        <v>2.3255813953488372E-3</v>
       </c>
       <c r="AD36" s="10">
         <f t="shared" si="14"/>
@@ -3423,15 +2840,15 @@
       </c>
       <c r="AE36" s="10">
         <f t="shared" si="7"/>
-        <v>0.0813953488372093</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31">
+        <v>8.1395348837209308E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B37" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA37" s="9">
         <v>900</v>
@@ -3442,7 +2859,7 @@
       </c>
       <c r="AC37" s="10">
         <f t="shared" si="9"/>
-        <v>0.00232558139534884</v>
+        <v>2.3255813953488372E-3</v>
       </c>
       <c r="AD37" s="10">
         <f t="shared" si="14"/>
@@ -3450,15 +2867,15 @@
       </c>
       <c r="AE37" s="10">
         <f t="shared" si="7"/>
-        <v>0.0837209302325581</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31">
+        <v>8.3720930232558138E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B38" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA38" s="9">
         <v>925</v>
@@ -3469,7 +2886,7 @@
       </c>
       <c r="AC38" s="10">
         <f t="shared" si="9"/>
-        <v>0.00232558139534884</v>
+        <v>2.3255813953488372E-3</v>
       </c>
       <c r="AD38" s="10">
         <f t="shared" si="14"/>
@@ -3477,15 +2894,15 @@
       </c>
       <c r="AE38" s="10">
         <f t="shared" si="7"/>
-        <v>0.086046511627907</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31">
+        <v>8.6046511627906969E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B39" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA39" s="9">
         <v>950</v>
@@ -3496,7 +2913,7 @@
       </c>
       <c r="AC39" s="10">
         <f t="shared" si="9"/>
-        <v>0.00232558139534884</v>
+        <v>2.3255813953488372E-3</v>
       </c>
       <c r="AD39" s="10">
         <f t="shared" si="14"/>
@@ -3504,15 +2921,15 @@
       </c>
       <c r="AE39" s="10">
         <f t="shared" si="7"/>
-        <v>0.0883720930232558</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31">
+        <v>8.8372093023255813E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B40" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA40" s="9">
         <v>975</v>
@@ -3523,7 +2940,7 @@
       </c>
       <c r="AC40" s="10">
         <f t="shared" si="9"/>
-        <v>0.00232558139534884</v>
+        <v>2.3255813953488372E-3</v>
       </c>
       <c r="AD40" s="10">
         <f t="shared" si="14"/>
@@ -3531,15 +2948,15 @@
       </c>
       <c r="AE40" s="10">
         <f t="shared" si="7"/>
-        <v>0.0906976744186047</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31">
+        <v>9.0697674418604657E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B41" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA41" s="9">
         <v>1000</v>
@@ -3550,7 +2967,7 @@
       </c>
       <c r="AC41" s="10">
         <f t="shared" si="9"/>
-        <v>0.00232558139534884</v>
+        <v>2.3255813953488372E-3</v>
       </c>
       <c r="AD41" s="10">
         <f t="shared" si="14"/>
@@ -3558,15 +2975,15 @@
       </c>
       <c r="AE41" s="10">
         <f t="shared" si="7"/>
-        <v>0.0930232558139535</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31">
+        <v>9.3023255813953487E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B42" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA42" s="7">
         <v>1500</v>
@@ -3577,7 +2994,7 @@
       </c>
       <c r="AC42" s="8">
         <f t="shared" si="9"/>
-        <v>0.000465116279069767</v>
+        <v>4.6511627906976747E-4</v>
       </c>
       <c r="AD42" s="8">
         <f>0.02</f>
@@ -3585,15 +3002,15 @@
       </c>
       <c r="AE42" s="8">
         <f t="shared" si="7"/>
-        <v>0.027906976744186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31">
+        <v>2.790697674418605E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B43" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA43" s="7">
         <v>2000</v>
@@ -3604,7 +3021,7 @@
       </c>
       <c r="AC43" s="8">
         <f t="shared" si="9"/>
-        <v>0.000465116279069767</v>
+        <v>4.6511627906976747E-4</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="14"/>
@@ -3612,15 +3029,15 @@
       </c>
       <c r="AE43" s="8">
         <f t="shared" si="7"/>
-        <v>0.0372093023255814</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31">
+        <v>3.7209302325581395E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B44" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA44" s="7">
         <v>3000</v>
@@ -3631,7 +3048,7 @@
       </c>
       <c r="AC44" s="8">
         <f t="shared" si="9"/>
-        <v>0.000465116279069767</v>
+        <v>4.6511627906976747E-4</v>
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="14"/>
@@ -3639,15 +3056,15 @@
       </c>
       <c r="AE44" s="8">
         <f t="shared" si="7"/>
-        <v>0.0558139534883721</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31">
+        <v>5.5813953488372099E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B45" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
@@ -3655,12 +3072,12 @@
       <c r="AD45" s="7"/>
       <c r="AE45" s="7"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B46" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
@@ -3668,1877 +3085,1877 @@
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B47" s="1">
-        <v>0.0015234375</v>
+        <v>1.5234375000000001E-3</v>
       </c>
       <c r="AA47" s="11"/>
       <c r="AB47" s="11"/>
       <c r="AC47" s="10">
         <f>SUM(AC2:AC44)</f>
-        <v>0.99426046511628</v>
+        <v>0.99426046511628041</v>
       </c>
       <c r="AD47" s="10"/>
       <c r="AE47" s="10">
         <f>SUM(AE2:AE44)</f>
-        <v>12.1997209302326</v>
+        <v>12.19972093023256</v>
       </c>
       <c r="AF47" s="1">
         <v>12.2</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B48" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>0.158203125</v>
       </c>
       <c r="B49" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>0.1875</v>
       </c>
       <c r="B50" s="1">
-        <v>0.04875</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>4.8750000000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>0.1875</v>
       </c>
       <c r="B51" s="1">
-        <v>0.04875</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>4.8750000000000002E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>0.1887019230625</v>
       </c>
       <c r="B52" s="1">
-        <v>0.01625</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>1.6250000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B53" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B54" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B55" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B56" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B57" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B58" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B59" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B60" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B61" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B62" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B63" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B64" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B65" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B66" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B67" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B68" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B69" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B70" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B71" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B72" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B73" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B74" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B75" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B76" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B77" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B78" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B79" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B80" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B81" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B82" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B83" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B84" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B85" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B86" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B87" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B88" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B89" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B90" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B91" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B92" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B93" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B94" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B95" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B96" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B97" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B98" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B99" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>0.31843449516797</v>
+        <v>0.31843449516797001</v>
       </c>
       <c r="B100" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B101" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B102" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B103" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B104" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B105" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B106" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B107" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B108" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B109" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B110" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B111" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B112" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B113" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B114" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B115" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B116" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B117" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B118" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B119" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B120" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B121" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B122" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B123" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B124" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B125" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B126" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B127" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B128" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B129" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B130" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B131" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B132" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B133" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B134" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B135" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B136" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>0.474609375</v>
       </c>
       <c r="B137" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B138" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B139" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B140" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B141" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B142" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B143" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B144" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B145" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B146" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B147" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B148" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B149" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B150" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B151" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B152" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B153" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B154" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B155" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B156" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B157" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B158" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B159" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B160" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B161" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B162" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B163" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B164" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B165" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B166" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B167" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B168" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B169" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B170" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B171" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B172" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B173" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B174" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B175" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B176" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B177" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B178" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B179" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B180" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B181" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B182" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B183" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B184" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B185" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B186" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B187" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B188" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B189" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B190" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B191" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B192" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B193" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B194" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B195" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B196" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B197" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B198" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B199" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B200" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B201" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B202" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B203" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B204" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B205" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
-        <v>0.95530348550391</v>
+        <v>0.95530348550390998</v>
       </c>
       <c r="B206" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B207" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B208" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B209" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B210" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B211" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B212" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B213" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B214" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B215" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B216" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B217" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B218" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B219" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B220" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B221" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B222" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B223" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B224" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B225" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B226" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B227" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B228" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B229" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B230" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>1.423828125</v>
       </c>
       <c r="B231" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B232" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B233" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B234" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B235" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B236" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B237" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B238" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B239" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B240" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B241" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B242" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B243" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B244" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B245" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B246" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B247" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B248" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B249" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B250" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B251" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B252" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B253" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B254" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B255" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B256" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B257" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B258" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B259" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B260" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B261" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B262" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B263" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B264" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B265" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B266" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B267" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B268" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B269" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B270" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B271" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B272" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B273" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B274" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B275" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B276" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B277" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B278" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>2.8659104565117</v>
       </c>
@@ -5546,460 +4963,459 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B280" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B281" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B282" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B283" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B284" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B285" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B286" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>2.8659104565117</v>
       </c>
       <c r="B287" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>4.271484375</v>
       </c>
       <c r="B288" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>4.271484375</v>
       </c>
       <c r="B289" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>4.271484375</v>
       </c>
       <c r="B290" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>4.271484375</v>
       </c>
       <c r="B291" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>4.271484375</v>
       </c>
       <c r="B292" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>4.271484375</v>
       </c>
       <c r="B293" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>4.271484375</v>
       </c>
       <c r="B294" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>4.271484375</v>
       </c>
       <c r="B295" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B296" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B297" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B298" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B299" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B300" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B301" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B302" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B303" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B304" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B305" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B306" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B307" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B308" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B309" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B310" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B311" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B312" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B313" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B314" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B315" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B316" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B317" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B318" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B319" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B320" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B321" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B322" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
-        <v>8.5977313695352</v>
+        <v>8.5977313695352002</v>
       </c>
       <c r="B323" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
         <v>12.814453125</v>
       </c>
       <c r="B324" s="1">
-        <v>0.0015234375</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
+        <v>1.5234375000000001E-3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
         <v>25.793194108605</v>
       </c>
       <c r="B325" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
         <v>25.793194108605</v>
       </c>
       <c r="B326" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
         <v>25.793194108605</v>
       </c>
       <c r="B327" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
         <v>25.793194108605</v>
       </c>
       <c r="B328" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
         <v>25.793194108605</v>
       </c>
       <c r="B329" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
         <v>25.793194108605</v>
       </c>
       <c r="B330" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
         <v>25.793194108605</v>
       </c>
       <c r="B331" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
         <v>25.793194108605</v>
       </c>
       <c r="B332" s="1">
-        <v>0.001015625</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
+        <v>1.015625E-3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
-        <v>77.379582325816</v>
+        <v>77.379582325816003</v>
       </c>
       <c r="B333" s="1">
-        <v>0.001015625</v>
+        <v>1.015625E-3</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="F1:G19">
     <sortCondition ref="F1"/>
   </sortState>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="12" customFormat="1" spans="1:10">
+    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6031,7 +5447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6063,7 +5479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6095,7 +5511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6127,7 +5543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6159,7 +5575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6192,22 +5608,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
@@ -6216,7 +5631,7 @@
     <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:6">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -6234,24 +5649,24 @@
       </c>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>50</v>
       </c>
       <c r="D2" s="1">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6262,13 +5677,13 @@
         <v>150</v>
       </c>
       <c r="D3" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6286,27 +5701,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="21" customHeight="1" spans="1:13">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6347,7 +5761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6355,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0.111</v>
+        <v>0.11550000000000001</v>
       </c>
       <c r="D2" s="1">
         <f>B2*C2</f>
@@ -6363,11 +5777,11 @@
       </c>
       <c r="E2" s="1">
         <f>SUM(D2:D6)</f>
-        <v>4.8752</v>
+        <v>4.8011249999999936</v>
       </c>
       <c r="F2" s="1">
         <f>E2/5</f>
-        <v>0.97504</v>
+        <v>0.96022499999999877</v>
       </c>
       <c r="G2" s="1">
         <v>0.13</v>
@@ -6391,7 +5805,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6399,20 +5813,20 @@
         <v>0.5</v>
       </c>
       <c r="C3" s="1">
-        <v>0.4044</v>
+        <v>0.40625</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D6" si="0">B3*C3</f>
-        <v>0.2022</v>
+        <v>0.203125</v>
       </c>
       <c r="G3" s="1">
-        <v>0.3633</v>
+        <v>0.36330000000000001</v>
       </c>
       <c r="H3" s="1">
         <v>0.4</v>
       </c>
       <c r="I3" s="1">
-        <v>0.405</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="J3" s="1">
         <v>0.43</v>
@@ -6421,13 +5835,13 @@
         <v>0.43</v>
       </c>
       <c r="L3" s="1">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>0.4044</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.40439999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6435,11 +5849,11 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>0.3506</v>
+        <v>0.35060000000000002</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>1.753</v>
+        <v>1.7530000000000001</v>
       </c>
       <c r="G4" s="1">
         <v>0.4</v>
@@ -6460,10 +5874,10 @@
         <v>0.37</v>
       </c>
       <c r="M4" s="1">
-        <v>0.3506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.35060000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6471,11 +5885,11 @@
         <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>0.131</v>
+        <v>0.124</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="G5" s="1">
         <v>0.1</v>
@@ -6496,10 +5910,10 @@
         <v>0.11</v>
       </c>
       <c r="M5" s="1">
-        <v>0.131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6508,63 +5922,62 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6" si="1">1-SUM(C2:C5)</f>
-        <v>0.003</v>
+        <v>3.6499999999999311E-3</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.36499999999999311</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ref="G6:M6" si="2">1-SUM(G2:G5)</f>
-        <v>0.00670000000000004</v>
+        <v>6.7000000000000393E-3</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>0.005</v>
+        <v>5.0000000000000044E-3</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>0.005</v>
+        <v>5.0000000000000044E-3</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>0.005</v>
+        <v>5.0000000000000044E-3</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>0.005</v>
+        <v>5.0000000000000044E-3</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>0.00600000000000001</v>
+        <v>6.0000000000000053E-3</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>0.003</v>
+        <v>3.0000000000000027E-3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6581,7 +5994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6599,21 +6012,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11" style="1"/>
     <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
@@ -6621,7 +6033,7 @@
     <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="21" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6638,7 +6050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6650,14 +6062,14 @@
       </c>
       <c r="D2" s="1">
         <f>B2*C2</f>
-        <v>0.011</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="E2" s="1">
         <f>SUM(D2:D10)</f>
-        <v>0.50003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.50003000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6670,10 +6082,10 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D10" si="0">B3*C3</f>
-        <v>0.022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>2.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6686,10 +6098,10 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0.033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6701,10 +6113,10 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0.04532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>4.5319999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6717,10 +6129,10 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0.05665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>5.6649999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6733,10 +6145,10 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>0.06798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>6.7979999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6745,14 +6157,14 @@
       </c>
       <c r="C8" s="14">
         <f>(1-SUM(C2:C7))/3</f>
-        <v>0.110033333333333</v>
+        <v>0.11003333333333336</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>0.0770233333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>7.7023333333333346E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6761,14 +6173,14 @@
       </c>
       <c r="C9" s="1">
         <f>C$8</f>
-        <v>0.110033333333333</v>
+        <v>0.11003333333333336</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>0.0880266666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>8.8026666666666697E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6777,32 +6189,31 @@
       </c>
       <c r="C10" s="1">
         <f>C$8</f>
-        <v>0.110033333333333</v>
+        <v>0.11003333333333336</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>0.09903</v>
+        <v>9.9030000000000021E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6819,7 +6230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6835,17 +6246,17 @@
       </c>
       <c r="E2" s="1">
         <f>SUM(D2:D49)</f>
-        <v>4.999712</v>
+        <v>4.9997119999999953</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C3" s="1">
         <f>$C$2</f>
@@ -6853,13 +6264,13 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D13" si="0">B3*C3</f>
-        <v>0.022</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6872,13 +6283,13 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6891,13 +6302,13 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0.026</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6910,13 +6321,13 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0.028</v>
+        <v>2.7999999999999997E-2</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6935,7 +6346,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6948,13 +6359,13 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6967,13 +6378,13 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6986,13 +6397,13 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>0.036</v>
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7005,13 +6416,13 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7030,7 +6441,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7043,18 +6454,18 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
@@ -7062,13 +6473,13 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" ref="D14:D49" si="2">B14*C14</f>
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7081,13 +6492,13 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7106,7 +6517,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7119,13 +6530,13 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
-        <v>0.052</v>
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7138,13 +6549,13 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>0.056</v>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7163,7 +6574,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7171,17 +6582,17 @@
         <v>3.2</v>
       </c>
       <c r="C20" s="14">
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
-        <v>0.059392</v>
+        <v>5.9392E-2</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7190,17 +6601,17 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" ref="C21:C37" si="3">$C$20</f>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="2"/>
-        <v>0.063104</v>
+        <v>6.3103999999999993E-2</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7209,17 +6620,17 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="2"/>
-        <v>0.066816</v>
+        <v>6.6816E-2</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7228,15 +6639,15 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="2"/>
-        <v>0.070528</v>
+        <v>7.0527999999999993E-2</v>
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7245,15 +6656,15 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>0.07424</v>
+        <v>7.424E-2</v>
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7262,49 +6673,49 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="2"/>
-        <v>0.079808</v>
+        <v>7.9808000000000004E-2</v>
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="2"/>
-        <v>0.085376</v>
+        <v>8.5375999999999994E-2</v>
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="2"/>
-        <v>0.090944</v>
+        <v>9.0944000000000011E-2</v>
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7313,15 +6724,15 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="2"/>
-        <v>0.0928</v>
+        <v>9.2799999999999994E-2</v>
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7330,15 +6741,15 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="2"/>
-        <v>0.096512</v>
+        <v>9.6512000000000001E-2</v>
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7347,15 +6758,15 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="2"/>
-        <v>0.100224</v>
+        <v>0.10022400000000001</v>
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7364,7 +6775,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="2"/>
@@ -7372,7 +6783,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7381,15 +6792,15 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="2"/>
-        <v>0.107648</v>
+        <v>0.10764799999999999</v>
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7398,7 +6809,7 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="2"/>
@@ -7406,7 +6817,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7415,7 +6826,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="2"/>
@@ -7423,7 +6834,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7432,15 +6843,15 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="2"/>
-        <v>0.122496</v>
+        <v>0.12249599999999999</v>
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7449,15 +6860,15 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="2"/>
-        <v>0.128064</v>
+        <v>0.12806400000000001</v>
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7466,15 +6877,15 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="3"/>
-        <v>0.01856</v>
+        <v>1.856E-2</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="2"/>
-        <v>0.12992</v>
+        <v>0.12992000000000001</v>
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7483,15 +6894,15 @@
       </c>
       <c r="C38" s="14">
         <f>(1-SUM(C2:C37))/12</f>
-        <v>0.0254933333333333</v>
+        <v>2.5493333333333302E-2</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="2"/>
-        <v>0.186101333333333</v>
+        <v>0.18610133333333309</v>
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7500,15 +6911,15 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" ref="C39:C49" si="4">C$38</f>
-        <v>0.0254933333333333</v>
+        <v>2.5493333333333302E-2</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="2"/>
-        <v>0.193749333333333</v>
+        <v>0.19374933333333308</v>
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7517,15 +6928,15 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="4"/>
-        <v>0.0254933333333333</v>
+        <v>2.5493333333333302E-2</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="2"/>
-        <v>0.201397333333333</v>
+        <v>0.2013973333333331</v>
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7534,32 +6945,32 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="4"/>
-        <v>0.0254933333333333</v>
+        <v>2.5493333333333302E-2</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="2"/>
-        <v>0.203946666666666</v>
+        <v>0.20394666666666642</v>
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="4"/>
-        <v>0.0254933333333333</v>
+        <v>2.5493333333333302E-2</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="2"/>
-        <v>0.209045333333333</v>
+        <v>0.20904533333333306</v>
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7568,15 +6979,15 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" si="4"/>
-        <v>0.0254933333333333</v>
+        <v>2.5493333333333302E-2</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="2"/>
-        <v>0.214144</v>
+        <v>0.21414399999999975</v>
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7585,32 +6996,32 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="4"/>
-        <v>0.0254933333333333</v>
+        <v>2.5493333333333302E-2</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="2"/>
-        <v>0.219242666666666</v>
+        <v>0.21924266666666639</v>
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="4"/>
-        <v>0.0254933333333333</v>
+        <v>2.5493333333333302E-2</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="2"/>
-        <v>0.224341333333333</v>
+        <v>0.22434133333333309</v>
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7619,32 +7030,32 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" si="4"/>
-        <v>0.0254933333333333</v>
+        <v>2.5493333333333302E-2</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="2"/>
-        <v>0.22944</v>
+        <v>0.22943999999999973</v>
       </c>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="4"/>
-        <v>0.0254933333333333</v>
+        <v>2.5493333333333302E-2</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="2"/>
-        <v>0.237088</v>
+        <v>0.23708799999999972</v>
       </c>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7653,15 +7064,15 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" si="4"/>
-        <v>0.0254933333333333</v>
+        <v>2.5493333333333302E-2</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="2"/>
-        <v>0.244736</v>
+        <v>0.24473599999999968</v>
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7670,47 +7081,46 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" si="4"/>
-        <v>0.0254933333333333</v>
+        <v>2.5493333333333302E-2</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="2"/>
-        <v>0.252384</v>
+        <v>0.25238399999999972</v>
       </c>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="5:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="5:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="5:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E52" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="11" style="1"/>
     <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7736,7 +7146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7749,25 +7159,25 @@
       </c>
       <c r="D2" s="1">
         <f>B2*C2</f>
-        <v>0.9</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="E2" s="1">
         <f>SUM(D2:D29)</f>
-        <v>20.0004509090909</v>
+        <v>20.000450909090898</v>
       </c>
       <c r="F2" s="14">
         <v>0.09</v>
       </c>
       <c r="G2" s="1">
         <f>SUM(C2:C7)</f>
-        <v>0.54</v>
+        <v>0.53999999999999992</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(D2:D7)</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>6.7499999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7783,18 +7193,18 @@
         <v>0.99</v>
       </c>
       <c r="F3" s="14">
-        <v>0.02734</v>
+        <v>2.734E-2</v>
       </c>
       <c r="G3" s="1">
         <f>SUM(C8:C18)</f>
-        <v>0.30074</v>
+        <v>0.30073999999999995</v>
       </c>
       <c r="H3" s="1">
         <f>SUM(D8:D18)</f>
-        <v>6.80766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>6.8076600000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7811,18 +7221,18 @@
       </c>
       <c r="F4" s="14">
         <f>(1-SUM(C2:C18))/11</f>
-        <v>0.0144781818181818</v>
+        <v>1.4478181818181795E-2</v>
       </c>
       <c r="G4" s="1">
         <f>SUM(C19:C29)</f>
-        <v>0.15926</v>
+        <v>0.15925999999999976</v>
       </c>
       <c r="H4" s="1">
         <f>SUM(D19:D29)</f>
-        <v>6.4427909090909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>6.4427909090908981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7839,7 +7249,7 @@
       </c>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7856,7 +7266,7 @@
       </c>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7869,11 +7279,11 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7882,7 +7292,7 @@
       </c>
       <c r="C8" s="14">
         <f>F3</f>
-        <v>0.02734</v>
+        <v>2.734E-2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
@@ -7890,7 +7300,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7899,15 +7309,15 @@
       </c>
       <c r="C9" s="1">
         <f>C$8</f>
-        <v>0.02734</v>
+        <v>2.734E-2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>0.46478</v>
+        <v>0.46477999999999997</v>
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7916,7 +7326,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ref="C10:C18" si="2">C$8</f>
-        <v>0.02734</v>
+        <v>2.734E-2</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
@@ -7924,7 +7334,7 @@
       </c>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7933,15 +7343,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="2"/>
-        <v>0.02734</v>
+        <v>2.734E-2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.5468</v>
+        <v>0.54679999999999995</v>
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7950,15 +7360,15 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="2"/>
-        <v>0.02734</v>
+        <v>2.734E-2</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>0.57414</v>
+        <v>0.57413999999999998</v>
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7967,14 +7377,14 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="2"/>
-        <v>0.02734</v>
+        <v>2.734E-2</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.62882</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.62882000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7983,14 +7393,14 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="2"/>
-        <v>0.02734</v>
+        <v>2.734E-2</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0.65616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.65615999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7999,14 +7409,14 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="2"/>
-        <v>0.02734</v>
+        <v>2.734E-2</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>0.6835</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8015,14 +7425,14 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="2"/>
-        <v>0.02734</v>
+        <v>2.734E-2</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>0.73818</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.73817999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8031,14 +7441,14 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="2"/>
-        <v>0.02734</v>
+        <v>2.734E-2</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>0.76552</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.76551999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8047,14 +7457,14 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="2"/>
-        <v>0.02734</v>
+        <v>2.734E-2</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>0.8202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.82020000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8063,14 +7473,14 @@
       </c>
       <c r="C19" s="14">
         <f>F4</f>
-        <v>0.0144781818181818</v>
+        <v>1.4478181818181795E-2</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>0.448823636363636</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.44882363636363565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8079,14 +7489,14 @@
       </c>
       <c r="C20" s="1">
         <f>C$19</f>
-        <v>0.0144781818181818</v>
+        <v>1.4478181818181795E-2</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>0.477779999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.47777999999999921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8095,14 +7505,14 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" ref="C21:C29" si="3">C$19</f>
-        <v>0.0144781818181818</v>
+        <v>1.4478181818181795E-2</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>0.506736363636363</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.50673636363636276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8111,14 +7521,14 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="3"/>
-        <v>0.0144781818181818</v>
+        <v>1.4478181818181795E-2</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>0.535692727272726</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.53569272727272643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8127,14 +7537,14 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="3"/>
-        <v>0.0144781818181818</v>
+        <v>1.4478181818181795E-2</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>0.550170909090908</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.55017090909090816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8143,14 +7553,14 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="3"/>
-        <v>0.0144781818181818</v>
+        <v>1.4478181818181795E-2</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>0.579127272727272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.57912727272727182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8159,14 +7569,14 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="3"/>
-        <v>0.0144781818181818</v>
+        <v>1.4478181818181795E-2</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>0.608083636363635</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.60808363636363538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8175,14 +7585,14 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="3"/>
-        <v>0.0144781818181818</v>
+        <v>1.4478181818181795E-2</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>0.637039999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.63703999999999894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8191,14 +7601,14 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="3"/>
-        <v>0.0144781818181818</v>
+        <v>1.4478181818181795E-2</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>0.665996363636362</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0.6659963636363625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8207,14 +7617,14 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="3"/>
-        <v>0.0144781818181818</v>
+        <v>1.4478181818181795E-2</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>0.709430909090908</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.70943090909090789</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8223,42 +7633,41 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="3"/>
-        <v>0.0144781818181818</v>
+        <v>1.4478181818181795E-2</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>0.72390909090909</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
+        <v>0.72390909090908973</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="11" style="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
@@ -8268,7 +7677,7 @@
     <col min="8" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8294,7 +7703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -8303,7 +7712,7 @@
       </c>
       <c r="C2" s="14">
         <f>F2</f>
-        <v>0.05702</v>
+        <v>5.7020000000000001E-2</v>
       </c>
       <c r="D2" s="13">
         <f>B2*C2</f>
@@ -8311,21 +7720,21 @@
       </c>
       <c r="E2" s="1">
         <f>SUM(D2:D37)</f>
-        <v>99.99486</v>
+        <v>99.994859999999989</v>
       </c>
       <c r="F2" s="1">
-        <v>0.05702</v>
+        <v>5.7020000000000001E-2</v>
       </c>
       <c r="G2" s="1">
         <f>SUM(C2:C15)</f>
-        <v>0.79828</v>
+        <v>0.79827999999999988</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(D2:D15)</f>
-        <v>56.62086</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>56.620859999999986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -8334,25 +7743,25 @@
       </c>
       <c r="C3" s="13">
         <f>C$2</f>
-        <v>0.05702</v>
+        <v>5.7020000000000001E-2</v>
       </c>
       <c r="D3" s="13">
         <f t="shared" ref="D3:D37" si="0">B3*C3</f>
-        <v>3.02206</v>
+        <v>3.0220600000000002</v>
       </c>
       <c r="F3" s="1">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G3" s="1">
         <f>SUM(C16:C30)</f>
-        <v>0.18</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="H3" s="1">
         <f>SUM(D16:D30)</f>
         <v>33.6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -8361,26 +7770,26 @@
       </c>
       <c r="C4" s="13">
         <f t="shared" ref="C4:C15" si="1">C$2</f>
-        <v>0.05702</v>
+        <v>5.7020000000000001E-2</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" si="0"/>
-        <v>3.1361</v>
+        <v>3.1360999999999999</v>
       </c>
       <c r="F4" s="1">
         <f>(1-SUM(C2:C30))/7</f>
-        <v>0.00310285714285714</v>
+        <v>3.1028571428571372E-3</v>
       </c>
       <c r="G4" s="1">
         <f>SUM(C31:C37)</f>
-        <v>0.02172</v>
+        <v>2.1719999999999958E-2</v>
       </c>
       <c r="H4" s="1">
         <f>SUM(D31:D37)</f>
-        <v>9.77399999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>9.7739999999999831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -8389,14 +7798,14 @@
       </c>
       <c r="C5" s="13">
         <f t="shared" si="1"/>
-        <v>0.05702</v>
+        <v>5.7020000000000001E-2</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="0"/>
         <v>3.19312</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -8405,14 +7814,14 @@
       </c>
       <c r="C6" s="13">
         <f t="shared" si="1"/>
-        <v>0.05702</v>
+        <v>5.7020000000000001E-2</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="0"/>
-        <v>3.30716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>3.3071600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -8421,14 +7830,14 @@
       </c>
       <c r="C7" s="13">
         <f t="shared" si="1"/>
-        <v>0.05702</v>
+        <v>5.7020000000000001E-2</v>
       </c>
       <c r="D7" s="13">
         <f t="shared" si="0"/>
-        <v>3.4212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>3.4212000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -8437,14 +7846,14 @@
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
-        <v>0.05702</v>
+        <v>5.7020000000000001E-2</v>
       </c>
       <c r="D8" s="13">
         <f t="shared" si="0"/>
-        <v>3.7063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>3.7063000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -8453,14 +7862,14 @@
       </c>
       <c r="C9" s="13">
         <f t="shared" si="1"/>
-        <v>0.05702</v>
+        <v>5.7020000000000001E-2</v>
       </c>
       <c r="D9" s="13">
         <f t="shared" si="0"/>
-        <v>3.9914</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>3.9914000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -8469,14 +7878,14 @@
       </c>
       <c r="C10" s="13">
         <f t="shared" si="1"/>
-        <v>0.05702</v>
+        <v>5.7020000000000001E-2</v>
       </c>
       <c r="D10" s="13">
         <f t="shared" si="0"/>
-        <v>4.2765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>4.2765000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -8485,14 +7894,14 @@
       </c>
       <c r="C11" s="13">
         <f t="shared" si="1"/>
-        <v>0.05702</v>
+        <v>5.7020000000000001E-2</v>
       </c>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
-        <v>4.5616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>4.5616000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -8501,14 +7910,14 @@
       </c>
       <c r="C12" s="13">
         <f t="shared" si="1"/>
-        <v>0.05702</v>
+        <v>5.7020000000000001E-2</v>
       </c>
       <c r="D12" s="13">
         <f t="shared" si="0"/>
-        <v>4.8467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>4.8467000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -8517,14 +7926,14 @@
       </c>
       <c r="C13" s="13">
         <f t="shared" si="1"/>
-        <v>0.05702</v>
+        <v>5.7020000000000001E-2</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="0"/>
-        <v>5.1318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>5.1318000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -8533,14 +7942,14 @@
       </c>
       <c r="C14" s="13">
         <f t="shared" si="1"/>
-        <v>0.05702</v>
+        <v>5.7020000000000001E-2</v>
       </c>
       <c r="D14" s="13">
         <f t="shared" si="0"/>
         <v>5.4169</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -8549,14 +7958,14 @@
       </c>
       <c r="C15" s="13">
         <f t="shared" si="1"/>
-        <v>0.05702</v>
+        <v>5.7020000000000001E-2</v>
       </c>
       <c r="D15" s="13">
         <f t="shared" si="0"/>
         <v>5.702</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -8565,14 +7974,14 @@
       </c>
       <c r="C16" s="14">
         <f>F3</f>
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D16" s="13">
         <f t="shared" si="0"/>
         <v>1.32</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -8581,14 +7990,14 @@
       </c>
       <c r="C17" s="13">
         <f>C$16</f>
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D17" s="13">
         <f t="shared" si="0"/>
         <v>1.44</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -8597,14 +8006,14 @@
       </c>
       <c r="C18" s="13">
         <f t="shared" ref="C18:C30" si="2">C$16</f>
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D18" s="13">
         <f t="shared" si="0"/>
         <v>1.56</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -8613,14 +8022,14 @@
       </c>
       <c r="C19" s="13">
         <f t="shared" si="2"/>
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D19" s="13">
         <f t="shared" si="0"/>
         <v>1.68</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -8629,14 +8038,14 @@
       </c>
       <c r="C20" s="13">
         <f t="shared" si="2"/>
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D20" s="13">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -8645,14 +8054,14 @@
       </c>
       <c r="C21" s="13">
         <f t="shared" si="2"/>
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="0"/>
         <v>1.92</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -8661,14 +8070,14 @@
       </c>
       <c r="C22" s="13">
         <f t="shared" si="2"/>
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D22" s="13">
         <f t="shared" si="0"/>
         <v>2.04</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -8677,14 +8086,14 @@
       </c>
       <c r="C23" s="13">
         <f t="shared" si="2"/>
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D23" s="13">
         <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -8693,14 +8102,14 @@
       </c>
       <c r="C24" s="13">
         <f t="shared" si="2"/>
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D24" s="13">
         <f t="shared" si="0"/>
-        <v>2.28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>2.2800000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -8709,14 +8118,14 @@
       </c>
       <c r="C25" s="13">
         <f t="shared" si="2"/>
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D25" s="13">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -8725,14 +8134,14 @@
       </c>
       <c r="C26" s="13">
         <f t="shared" si="2"/>
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D26" s="13">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -8741,14 +8150,14 @@
       </c>
       <c r="C27" s="13">
         <f t="shared" si="2"/>
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D27" s="13">
         <f t="shared" si="0"/>
         <v>2.88</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -8757,14 +8166,14 @@
       </c>
       <c r="C28" s="13">
         <f t="shared" si="2"/>
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D28" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -8773,14 +8182,14 @@
       </c>
       <c r="C29" s="13">
         <f t="shared" si="2"/>
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D29" s="13">
         <f t="shared" si="0"/>
         <v>3.12</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -8789,14 +8198,14 @@
       </c>
       <c r="C30" s="13">
         <f t="shared" si="2"/>
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D30" s="13">
         <f t="shared" si="0"/>
         <v>3.36</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -8805,14 +8214,14 @@
       </c>
       <c r="C31" s="14">
         <f>F4</f>
-        <v>0.00310285714285714</v>
+        <v>3.1028571428571372E-3</v>
       </c>
       <c r="D31" s="13">
         <f t="shared" si="0"/>
-        <v>0.930857142857141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.93085714285714116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -8821,14 +8230,14 @@
       </c>
       <c r="C32" s="13">
         <f>C$31</f>
-        <v>0.00310285714285714</v>
+        <v>3.1028571428571372E-3</v>
       </c>
       <c r="D32" s="13">
         <f t="shared" si="0"/>
-        <v>1.086</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>1.0859999999999981</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -8837,14 +8246,14 @@
       </c>
       <c r="C33" s="13">
         <f t="shared" ref="C33:C37" si="3">C$31</f>
-        <v>0.00310285714285714</v>
+        <v>3.1028571428571372E-3</v>
       </c>
       <c r="D33" s="13">
         <f t="shared" si="0"/>
-        <v>1.24114285714285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>1.2411428571428549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -8853,14 +8262,14 @@
       </c>
       <c r="C34" s="13">
         <f t="shared" si="3"/>
-        <v>0.00310285714285714</v>
+        <v>3.1028571428571372E-3</v>
       </c>
       <c r="D34" s="13">
         <f t="shared" si="0"/>
-        <v>1.39628571428571</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>1.3962857142857117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -8869,14 +8278,14 @@
       </c>
       <c r="C35" s="13">
         <f t="shared" si="3"/>
-        <v>0.00310285714285714</v>
+        <v>3.1028571428571372E-3</v>
       </c>
       <c r="D35" s="13">
         <f t="shared" si="0"/>
-        <v>1.55142857142857</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>1.5514285714285687</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -8885,14 +8294,14 @@
       </c>
       <c r="C36" s="13">
         <f t="shared" si="3"/>
-        <v>0.00310285714285714</v>
+        <v>3.1028571428571372E-3</v>
       </c>
       <c r="D36" s="13">
         <f t="shared" si="0"/>
-        <v>1.70657142857143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>1.7065714285714255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -8901,16 +8310,16 @@
       </c>
       <c r="C37" s="13">
         <f t="shared" si="3"/>
-        <v>0.00310285714285714</v>
+        <v>3.1028571428571372E-3</v>
       </c>
       <c r="D37" s="13">
         <f t="shared" si="0"/>
-        <v>1.86171428571428</v>
+        <v>1.8617142857142823</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/xiaoxiaole_power_cfg.xlsx
+++ b/config_Release/xiaoxiaole_power_cfg.xlsx
@@ -5712,7 +5712,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0.11550000000000001</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D2" s="1">
         <f>B2*C2</f>
@@ -5777,11 +5777,11 @@
       </c>
       <c r="E2" s="1">
         <f>SUM(D2:D6)</f>
-        <v>4.8011249999999936</v>
+        <v>4.7511250000000009</v>
       </c>
       <c r="F2" s="1">
         <f>E2/5</f>
-        <v>0.96022499999999877</v>
+        <v>0.95022500000000021</v>
       </c>
       <c r="G2" s="1">
         <v>0.13</v>
@@ -5921,46 +5921,45 @@
         <v>100</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6" si="1">1-SUM(C2:C5)</f>
-        <v>3.6499999999999311E-3</v>
+        <v>3.15E-3</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0.36499999999999311</v>
+        <v>0.315</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:M6" si="2">1-SUM(G2:G5)</f>
+        <f t="shared" ref="G6:M6" si="1">1-SUM(G2:G5)</f>
         <v>6.7000000000000393E-3</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.0000000000000027E-3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
